--- a/medicine/Enfance/Les_Espions_de_Surrentum/Les_Espions_de_Surrentum.xlsx
+++ b/medicine/Enfance/Les_Espions_de_Surrentum/Les_Espions_de_Surrentum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Espions de Surrentums (The Sirens of Surrentum) est le onzième volume de la série de romans écrits par Caroline Lawrence, Les Mystères romains, publié en France, aux éditions Milan, en 2007. L'action de ce roman historique se situe sous la Rome antique.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Flavia et ses amis sont invités dans la villa Limona de Polliux Felix, au pied du Vésuve. Une sombre affaire va cependant transformer leur séjour en véritable enquête policière car Pulchra, la fille de Polliux, pense que l'on va essayer d'empoisonner sa mère.
 </t>
@@ -543,7 +557,9 @@
           <t>Parutions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Milan (Poche Histoire), 2007,  (ISBN 978-2-7459-3109-2)</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel des éditions Milan
  Portail de la Rome antique   Portail de la littérature américaine   Portail de la littérature d’enfance et de jeunesse                   </t>
